--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -301,7 +301,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -558,6 +558,9 @@
       <c r="C22" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Global Microscope (scores only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eiu.R</t>
   </si>
   <si>
     <t xml:space="preserve">FINAL_DATA_FOTN2018_TOTAL_and_CATEGORY_SCORES.xlsx</t>
@@ -301,7 +304,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -349,214 +352,217 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Freedom on the Net 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fotn.R</t>
   </si>
   <si>
     <t xml:space="preserve">MCI_Data_2019.xlsx</t>
@@ -304,7 +307,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -366,203 +369,206 @@
       <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Mobile Connectivity Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsma.R</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile_Money_Regulatory_Index_Database.xlsx</t>
@@ -307,14 +310,15 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,192 +387,198 @@
       <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Financial Access Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imf.R</t>
   </si>
   <si>
     <t xml:space="preserve">CoreHouseholdIndicators_Jun2019.xlsx</t>
@@ -310,7 +313,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -415,170 +418,173 @@
       <c r="C7" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Core Household Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itu.R</t>
   </si>
   <si>
     <t xml:space="preserve">draft-18-00706_Global-Cybersecurity-Index-EV5_print_2.pdf</t>
@@ -313,7 +316,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -432,159 +435,180 @@
       <c r="C8" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">Press Freedom Ranking 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsf.R</t>
   </si>
   <si>
     <t xml:space="preserve">SDG4_DS_04102019154356211.csv</t>
@@ -316,7 +319,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -533,82 +536,85 @@
       <c r="C15" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">Digital skills measured for SDG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdg4.R</t>
   </si>
   <si>
     <t xml:space="preserve">global_competitiveness_index.csv</t>
@@ -319,7 +322,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -550,71 +553,74 @@
       <c r="C16" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">Global Competitiveness Index </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wef.R</t>
   </si>
   <si>
     <t xml:space="preserve">laws_relating_to_icts.csv</t>
@@ -322,7 +325,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -567,60 +570,69 @@
       <c r="C17" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>

--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -181,15 +181,18 @@
     <t xml:space="preserve">Global Competitiveness Index </t>
   </si>
   <si>
+    <t xml:space="preserve">not using</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laws_relating_to_icts.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laws relating to ICTs</t>
+  </si>
+  <si>
     <t xml:space="preserve">wef.R</t>
   </si>
   <si>
-    <t xml:space="preserve">laws_relating_to_icts.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laws relating to ICTs</t>
-  </si>
-  <si>
     <t xml:space="preserve">WEF_NRI_2012-2016_Historical_Dataset.xlsx</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">Global Payment Systems Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wb.R</t>
   </si>
   <si>
     <t xml:space="preserve">Global Findex Database.xlsx</t>
@@ -325,7 +331,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -585,54 +591,60 @@
         <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>
